--- a/orario/orario 3C1.xlsx
+++ b/orario/orario 3C1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>LUNEDÌ</t>
   </si>
@@ -72,10 +72,16 @@
     <t>TLC</t>
   </si>
   <si>
+    <t>ITA*</t>
+  </si>
+  <si>
     <t>MATE</t>
   </si>
   <si>
     <t>REL</t>
+  </si>
+  <si>
+    <t>ING*</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -885,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>14</v>
@@ -899,19 +905,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -928,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4"/>
     </row>
